--- a/biology/Zoologie/Archigetes/Archigetes.xlsx
+++ b/biology/Zoologie/Archigetes/Archigetes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Archigetes est un genre de cestodes de l'ordre des Caryophyllidea. Les espèces de ce genre parasitent des poissons.
-Toutefois, le genre Archigetes est exceptionnel parmi tous les cestodes en ce que ses espèces peut atteindre la maturité sexuelles chez des hôtes invertébrés (Oligochaeta), contrairement à tous les autres cestodes qui ont un hôte vertébré[2].
+Toutefois, le genre Archigetes est exceptionnel parmi tous les cestodes en ce que ses espèces peut atteindre la maturité sexuelles chez des hôtes invertébrés (Oligochaeta), contrairement à tous les autres cestodes qui ont un hôte vertébré.
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon WoRMS[3], le genre inclut cinq espèces valides:
-Archigetes brachyurus Mrázek, 1908 [4]
-Archigetes cryptobothrius Wiśniewski, 1928[5]
-Archigetes iowensis Calentine, 1962[6]
-Archigetes limnodrili (Yamaguti, 1934) Kennedy, 1965[7]
-Archigetes sieboldi Leuckart, 1878 [8]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon WoRMS, le genre inclut cinq espèces valides:
+Archigetes brachyurus Mrázek, 1908 
+Archigetes cryptobothrius Wiśniewski, 1928
+Archigetes iowensis Calentine, 1962
+Archigetes limnodrili (Yamaguti, 1934) Kennedy, 1965
+Archigetes sieboldi Leuckart, 1878 </t>
         </is>
       </c>
     </row>
